--- a/biology/Botanique/Echium_wildpretii/Echium_wildpretii.xlsx
+++ b/biology/Botanique/Echium_wildpretii/Echium_wildpretii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echium wildpretii
 La vipérine de Tenerife (Echium wildpretii) est une plante herbacée bisannuelle de la famille des Boraginacées qui peut atteindre 3 mètres de hauteur. On trouve la vipérine de Tenerife dans les Cañadas du Teide (îles Canaries).
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Noms vernaculaires :
 Espagnol : Tajinaste rojo
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, bisannuelle.
 La première année, la vipérine se présente sous la forme d'une dense rosette feuillue. L'inflorescence érigée se développe ensuite, pouvant attendre de 1 à 3 mètres de hauteur, durant la deuxième année.
@@ -577,9 +593,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tenerife, Grande Canarie et La Palma[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tenerife, Grande Canarie et La Palma.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Type d'inflorescence :
